--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 7.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Generating Models 7.xlsx_with_dialog_acts.xlsx
@@ -695,12 +695,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1113,12 +1113,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1151,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1987,12 +1987,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2063,12 +2063,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2177,12 +2177,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3279,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3431,12 +3431,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4383,12 +4383,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
